--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -39,9 +39,6 @@
     <t>Le temps où la bombe rougit est mis en brut</t>
   </si>
   <si>
-    <t>il faut que le résultat obtenu soit un entier</t>
-  </si>
-  <si>
     <t>utilisation de Math.Round() du temps_exp /10</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t xml:space="preserve">Math,Round() existe? </t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>il faut que le résultat obtenu soit proportionnel au temps de l'explosion et que cela soit un entier</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -113,9 +116,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -418,131 +429,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="46.28515625" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6">
+        <v>41204</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D9" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D10" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>il faut que le résultat obtenu soit proportionnel au temps de l'explosion et que cela soit un entier</t>
+  </si>
+  <si>
+    <t>Améliorer fluidité déplacement</t>
+  </si>
+  <si>
+    <t>Pouvoir faire allé retour directement même si le mouvement est déjà enclanché</t>
+  </si>
+  <si>
+    <t>gérer les évènement touches à tout moment</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,9 +499,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6">
+        <v>41205</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
@@ -563,6 +585,7 @@
       <c r="F20" s="1"/>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.25">
@@ -588,6 +611,9 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -57,10 +57,19 @@
     <t>Améliorer fluidité déplacement</t>
   </si>
   <si>
-    <t>Pouvoir faire allé retour directement même si le mouvement est déjà enclanché</t>
-  </si>
-  <si>
     <t>gérer les évènement touches à tout moment</t>
+  </si>
+  <si>
+    <t>Pouvoir faire allé retour directement même si le mouvement est déjà enclenché</t>
+  </si>
+  <si>
+    <t>OMW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etat </t>
+  </si>
+  <si>
+    <t>A corriger</t>
   </si>
 </sst>
 </file>
@@ -117,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -131,11 +140,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -438,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,9 +465,10 @@
     <col min="5" max="5" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.140625" customWidth="1"/>
     <col min="7" max="7" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,12 +490,15 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>41204</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -491,80 +507,90 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>41205</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -63,13 +63,25 @@
     <t>Pouvoir faire allé retour directement même si le mouvement est déjà enclenché</t>
   </si>
   <si>
-    <t>OMW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Etat </t>
   </si>
   <si>
     <t>A corriger</t>
+  </si>
+  <si>
+    <t>Plus aucun déplacement par case donc</t>
+  </si>
+  <si>
+    <t>Corrigé</t>
+  </si>
+  <si>
+    <t>aucune pour l'instant</t>
+  </si>
+  <si>
+    <t>A méditer</t>
+  </si>
+  <si>
+    <t>Lorsqu'on reste appuyé sur un bout de déplacement l'animation est un petit peu saccadé</t>
   </si>
 </sst>
 </file>
@@ -452,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -511,11 +523,11 @@
       <c r="F2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -535,16 +547,32 @@
       <c r="F3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>15</v>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41205</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E5" s="1"/>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -66,9 +66,6 @@
     <t xml:space="preserve">Etat </t>
   </si>
   <si>
-    <t>A corriger</t>
-  </si>
-  <si>
     <t>Plus aucun déplacement par case donc</t>
   </si>
   <si>
@@ -82,6 +79,18 @@
   </si>
   <si>
     <t>Lorsqu'on reste appuyé sur un bout de déplacement l'animation est un petit peu saccadé</t>
+  </si>
+  <si>
+    <t>Timer plus précis</t>
+  </si>
+  <si>
+    <t>Le timer n'est pas le nombre de millisecondes écoulées mais le nombre de fois qu'est passé le code dans tel ou tel boucle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fonction retournant le nbr de millisecondes depuis le dernier passage dans la boucle doit exister </t>
+  </si>
+  <si>
+    <t>A chercher</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,6 +116,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -138,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,15 +179,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,212 +511,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.5703125" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="40.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5">
+      <c r="C2" s="7">
         <v>41204</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7">
+        <v>41205</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="5">
+      <c r="C4" s="7">
         <v>41205</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="5">
-        <v>41205</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E6" s="1"/>
+      <c r="C5" s="7">
+        <v>41206</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E9" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E10" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="E11" s="9"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E12" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="E12" s="9"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E13" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="E13" s="9"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E14" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E16" s="9"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="9"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="9"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="9"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.25">
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -91,6 +91,14 @@
   </si>
   <si>
     <t>A chercher</t>
+  </si>
+  <si>
+    <t>A réaliser</t>
+  </si>
+  <si>
+    <t>En utilisant getTime() c'est possible, 
+faire var debut = new Date().getTime(); 
+après on fait une soustraction et op :)</t>
   </si>
 </sst>
 </file>
@@ -165,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,7 +211,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -513,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -526,7 +533,7 @@
     <col min="5" max="5" width="42.42578125" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -557,7 +564,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="A2" s="15"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -570,7 +577,9 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
@@ -582,7 +591,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -595,7 +604,9 @@
       <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
@@ -607,7 +618,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -627,8 +638,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
+    <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="15"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
@@ -641,11 +652,15 @@
       <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14" t="s">
-        <v>24</v>
+      <c r="H5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -96,19 +96,38 @@
     <t>A réaliser</t>
   </si>
   <si>
-    <t>En utilisant getTime() c'est possible, 
+    <r>
+      <t xml:space="preserve">En utilisant getTime() c'est possible, 
 faire var debut = new Date().getTime(); 
-après on fait une soustraction et op :)</t>
+après on fait une soustraction et op :) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ok mais il faut un marqueur alors </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -173,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,9 +226,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -520,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,7 +580,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
+      <c r="A2" s="14"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -591,7 +607,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -618,7 +634,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -639,7 +655,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
@@ -652,14 +668,16 @@
       <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="12" t="s">
         <v>25</v>
       </c>
     </row>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -111,6 +111,15 @@
       </rPr>
       <t xml:space="preserve">Ok mais il faut un marqueur alors </t>
     </r>
+  </si>
+  <si>
+    <t>Au niveau du nommage, il faudrait mettre une norme pour les paramètre car des fois on peut se retrouver avec la même variables dans une fonction</t>
+  </si>
+  <si>
+    <t>p_MaVariable pour les paramètres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce vraiment gênant? </t>
   </si>
 </sst>
 </file>
@@ -192,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +242,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +552,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -681,11 +696,26 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="7">
+        <v>41209</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="8"/>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -174,7 +174,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -197,11 +197,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,9 +242,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -248,6 +258,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,7 +610,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
@@ -622,7 +637,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
@@ -649,7 +664,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
@@ -670,17 +685,17 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="7">
         <v>41206</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -692,11 +707,13 @@
       <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="7">
         <v>41209</v>
       </c>
@@ -706,14 +723,14 @@
       <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="17"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I6" s="15" t="s">
         <v>19</v>
       </c>
     </row>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -116,10 +116,23 @@
     <t>Au niveau du nommage, il faudrait mettre une norme pour les paramètre car des fois on peut se retrouver avec la même variables dans une fonction</t>
   </si>
   <si>
-    <t>p_MaVariable pour les paramètres</t>
-  </si>
-  <si>
     <t xml:space="preserve">Est-ce vraiment gênant? </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">p_MaVariable pour les paramètres
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pMaVariable, je rajoute ça, je préfère que l'on évite d'utiliser les underscores</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -214,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -254,9 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -566,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +696,7 @@
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="7">
@@ -712,8 +722,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="7">
         <v>41209</v>
       </c>
@@ -721,14 +731,16 @@
         <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="16"/>
+        <v>29</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I6" s="15" t="s">
         <v>19</v>

--- a/documentation/avancement/bug&opti.xlsx
+++ b/documentation/avancement/bug&opti.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t xml:space="preserve">Description </t>
   </si>
@@ -133,6 +133,9 @@
       </rPr>
       <t>pMaVariable, je rajoute ça, je préfère que l'on évite d'utiliser les underscores</t>
     </r>
+  </si>
+  <si>
+    <t>A realiser</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -265,9 +268,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +696,7 @@
     </row>
     <row r="5" spans="1:9" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="7">
@@ -722,8 +722,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="7">
         <v>41209</v>
       </c>
@@ -742,8 +742,8 @@
       <c r="H6" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="15" t="s">
-        <v>19</v>
+      <c r="I6" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
